--- a/result/week/week_description.xlsx
+++ b/result/week/week_description.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2609</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>2642</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>5607</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Y9999</t>
         </is>
       </c>
     </row>
@@ -476,10 +496,22 @@
         <v>0.0004394534099623612</v>
       </c>
       <c r="E2" t="n">
+        <v>-0.007552109835697963</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.001983490709040009</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.001012156744843832</v>
+      </c>
+      <c r="H2" t="n">
         <v>-0.002411310968405984</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>-0.004031048229107212</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.00119066407638447</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +530,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0.001394063216031638</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001103144072157392</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001679261519719866</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.004187734882419747</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +564,22 @@
         <v>0.03092640664215515</v>
       </c>
       <c r="E4" t="n">
+        <v>0.08950418639988228</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.05570167419902407</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.05684456410593356</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.05865657078451716</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>0.04215863805174728</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02298994882097174</v>
       </c>
     </row>
     <row r="5">
@@ -542,10 +598,22 @@
         <v>0.0009564426277959382</v>
       </c>
       <c r="E5" t="n">
+        <v>0.008010999383104872</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003102676508574223</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00323130446839359</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.003440593296199073</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>0.001777350762378234</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005285377467909</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +632,22 @@
         <v>8.503708654265678</v>
       </c>
       <c r="E6" t="n">
+        <v>15.328230173519</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.613560813579408</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.019554060811567</v>
+      </c>
+      <c r="H6" t="n">
         <v>15.06703728074115</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>3.167510079925342</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.477149737393637</v>
       </c>
     </row>
     <row r="7">
@@ -586,10 +666,22 @@
         <v>-1.290177513664843</v>
       </c>
       <c r="E7" t="n">
+        <v>-2.149292870776033</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.4278478720949812</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.2740653346915603</v>
+      </c>
+      <c r="H7" t="n">
         <v>-2.006504492261525</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
         <v>-0.3696326513711879</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9922655575978281</v>
       </c>
     </row>
     <row r="8">
@@ -608,10 +700,22 @@
         <v>-0.2033052090945451</v>
       </c>
       <c r="E8" t="n">
+        <v>-0.7329930891071448</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2676620302183386</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2973041398158434</v>
+      </c>
+      <c r="H8" t="n">
         <v>-0.4562173501357019</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
         <v>-0.1941560144409573</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.07259531885706139</v>
       </c>
     </row>
     <row r="9">
@@ -630,10 +734,22 @@
         <v>0.09116938713829326</v>
       </c>
       <c r="E9" t="n">
+        <v>0.2562658762184018</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2376716518771196</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2205562277492588</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.2240563765715695</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
         <v>0.1927124341116699</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1113411917997684</v>
       </c>
     </row>
     <row r="10">
@@ -652,10 +768,22 @@
         <v>0.131396569578746</v>
       </c>
       <c r="E10" t="n">
+        <v>-2.250528731037993</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.5930637220029626</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.3026348667083059</v>
+      </c>
+      <c r="H10" t="n">
         <v>-0.7209819795533892</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
         <v>-1.205283420503056</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.3560085588389565</v>
       </c>
     </row>
     <row r="11">
@@ -674,11 +802,23 @@
         <v>299</v>
       </c>
       <c r="E11" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F11" t="n">
         <v>299</v>
       </c>
+      <c r="G11" t="n">
+        <v>299</v>
+      </c>
+      <c r="H11" t="n">
+        <v>299</v>
+      </c>
+      <c r="I11" t="n">
+        <v>299</v>
+      </c>
+      <c r="J11" t="n">
+        <v>299</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -696,10 +836,22 @@
         <v>-0.01052670459891614</v>
       </c>
       <c r="E12" t="n">
+        <v>-0.02963814429045719</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.02084970681687559</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.0238391353131866</v>
+      </c>
+      <c r="H12" t="n">
         <v>-0.02027671349534632</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>-0.02101326628905587</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.0141435654227049</v>
       </c>
     </row>
     <row r="13">
@@ -718,10 +870,22 @@
         <v>0.01325447601401475</v>
       </c>
       <c r="E13" t="n">
+        <v>0.0270796066865181</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02037965744852488</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02386273593026855</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.01846214053498918</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
         <v>0.01689633234106269</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.008391104248516079</v>
       </c>
     </row>
   </sheetData>
